--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.39717295575618</v>
+        <v>90.3244913153348</v>
       </c>
       <c r="D2" t="n">
-        <v>5.384008589297016</v>
+        <v>5.010529799756964</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.74259739339132</v>
+        <v>89.52660234379269</v>
       </c>
       <c r="D3" t="n">
-        <v>5.72480122397213</v>
+        <v>5.036613095428592</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.21363696142062</v>
+        <v>87.49145891222696</v>
       </c>
       <c r="D4" t="n">
-        <v>5.865417588549914</v>
+        <v>4.781350778930478</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.05552660965857</v>
+        <v>87.42891266411321</v>
       </c>
       <c r="D5" t="n">
-        <v>5.097127783901773</v>
+        <v>5.097025982200761</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.86434714331342</v>
+        <v>84.7171610734206</v>
       </c>
       <c r="D6" t="n">
-        <v>5.821954067901587</v>
+        <v>5.307372271217099</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.25980547702308</v>
+        <v>85.94153699425564</v>
       </c>
       <c r="D7" t="n">
-        <v>5.551674078698071</v>
+        <v>6.285217652079069</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.65191476106649</v>
+        <v>84.17375151201206</v>
       </c>
       <c r="D8" t="n">
-        <v>5.623523696097195</v>
+        <v>5.71209571655574</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.56157608695784</v>
+        <v>82.90082947808361</v>
       </c>
       <c r="D9" t="n">
-        <v>5.723986254322615</v>
+        <v>5.698119767727046</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.82569082937353</v>
+        <v>83.14660020712614</v>
       </c>
       <c r="D10" t="n">
-        <v>5.009965017445893</v>
+        <v>4.752336368802252</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.24637842363022</v>
+        <v>80.29043852166409</v>
       </c>
       <c r="D11" t="n">
-        <v>5.42112338880329</v>
+        <v>5.654635941898627</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.85780044924363</v>
+        <v>79.40710936231082</v>
       </c>
       <c r="D12" t="n">
-        <v>6.165619249504754</v>
+        <v>5.684573799624822</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.73219770486388</v>
+        <v>78.96280427120371</v>
       </c>
       <c r="D13" t="n">
-        <v>4.666322487942517</v>
+        <v>5.975944911963698</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.65690496381706</v>
+        <v>77.97823158910478</v>
       </c>
       <c r="D14" t="n">
-        <v>5.469516070130587</v>
+        <v>5.456275316808521</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.79577059587507</v>
+        <v>76.59611646682731</v>
       </c>
       <c r="D15" t="n">
-        <v>6.389048799100531</v>
+        <v>5.283574736587267</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.46506344494881</v>
+        <v>75.68607133083027</v>
       </c>
       <c r="D16" t="n">
-        <v>5.728003499143655</v>
+        <v>5.301628048564734</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.41275990181838</v>
+        <v>74.7730212914424</v>
       </c>
       <c r="D17" t="n">
-        <v>5.313446107244354</v>
+        <v>5.956361774496101</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.32686189203143</v>
+        <v>74.64300631269315</v>
       </c>
       <c r="D18" t="n">
-        <v>6.067230993301354</v>
+        <v>5.951979214782746</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.25550997435056</v>
+        <v>72.68166937423138</v>
       </c>
       <c r="D19" t="n">
-        <v>5.193012949085072</v>
+        <v>5.392971396922875</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.61944500070949</v>
+        <v>71.54607129338035</v>
       </c>
       <c r="D20" t="n">
-        <v>5.728092262457281</v>
+        <v>5.563379572468776</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.73817804702185</v>
+        <v>70.43027280454757</v>
       </c>
       <c r="D21" t="n">
-        <v>5.427151997758528</v>
+        <v>5.437001470234648</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.00876292018381</v>
+        <v>69.58348158237376</v>
       </c>
       <c r="D22" t="n">
-        <v>5.853763168188153</v>
+        <v>5.986038308314835</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.28645789412285</v>
+        <v>68.79331810857349</v>
       </c>
       <c r="D23" t="n">
-        <v>6.078565849342111</v>
+        <v>5.964884899869284</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.69200045268092</v>
+        <v>67.98985958011258</v>
       </c>
       <c r="D24" t="n">
-        <v>5.539120401967855</v>
+        <v>5.726853863639255</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.15045350588744</v>
+        <v>66.57500326435714</v>
       </c>
       <c r="D25" t="n">
-        <v>5.529386588585944</v>
+        <v>4.934977068873854</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.88860852287193</v>
+        <v>66.31052539812563</v>
       </c>
       <c r="D26" t="n">
-        <v>5.536454364911826</v>
+        <v>5.541279251932249</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.4464775409967</v>
+        <v>65.49944934934436</v>
       </c>
       <c r="D27" t="n">
-        <v>5.296762895999288</v>
+        <v>5.654085748340599</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.84632677136417</v>
+        <v>64.31915013020101</v>
       </c>
       <c r="D28" t="n">
-        <v>5.247221971986645</v>
+        <v>5.700509835257741</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.16204026552717</v>
+        <v>63.32289002739086</v>
       </c>
       <c r="D29" t="n">
-        <v>6.27421338229629</v>
+        <v>6.245831816044108</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.15442203097227</v>
+        <v>61.97721413496625</v>
       </c>
       <c r="D30" t="n">
-        <v>5.512107671707029</v>
+        <v>5.951539631034006</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.27875083521998</v>
+        <v>60.60885816096454</v>
       </c>
       <c r="D31" t="n">
-        <v>5.661473890351815</v>
+        <v>6.20708995787848</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.10290882610295</v>
+        <v>59.00589290931261</v>
       </c>
       <c r="D32" t="n">
-        <v>5.660065720457044</v>
+        <v>5.724664380278689</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.66544641150721</v>
+        <v>58.84014481711632</v>
       </c>
       <c r="D33" t="n">
-        <v>5.288826910282156</v>
+        <v>5.267088661161588</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.26553770690231</v>
+        <v>57.2803928073291</v>
       </c>
       <c r="D34" t="n">
-        <v>5.992352980259695</v>
+        <v>6.024309108680887</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.94728654207837</v>
+        <v>55.33580109624079</v>
       </c>
       <c r="D35" t="n">
-        <v>6.292167233074775</v>
+        <v>5.318426222359377</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.04006918710895</v>
+        <v>56.18121470752249</v>
       </c>
       <c r="D36" t="n">
-        <v>5.930031523563753</v>
+        <v>5.261775745779729</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.08817005149461</v>
+        <v>55.41132657438013</v>
       </c>
       <c r="D37" t="n">
-        <v>5.547187844977054</v>
+        <v>6.019959188053533</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.30616445243059</v>
+        <v>53.78555269771888</v>
       </c>
       <c r="D38" t="n">
-        <v>6.199211283751719</v>
+        <v>5.613098211584336</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.60011207500406</v>
+        <v>53.45653666892966</v>
       </c>
       <c r="D39" t="n">
-        <v>5.817251289549078</v>
+        <v>6.23590775446061</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.6370047596527</v>
+        <v>51.95949937563009</v>
       </c>
       <c r="D40" t="n">
-        <v>6.421549240880528</v>
+        <v>6.808861988860603</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.98268299585028</v>
+        <v>51.26263893254524</v>
       </c>
       <c r="D41" t="n">
-        <v>6.068466569528927</v>
+        <v>6.155093508734844</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.57899373584431</v>
+        <v>49.76131638189282</v>
       </c>
       <c r="D42" t="n">
-        <v>6.282406278625048</v>
+        <v>6.33102751968026</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.7338999228444</v>
+        <v>49.43305097367308</v>
       </c>
       <c r="D43" t="n">
-        <v>6.662019108443449</v>
+        <v>7.119005433921108</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.89469559010783</v>
+        <v>47.08429382067882</v>
       </c>
       <c r="D44" t="n">
-        <v>5.657213293642197</v>
+        <v>5.930301405330949</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.60004546070902</v>
+        <v>47.10297059291173</v>
       </c>
       <c r="D45" t="n">
-        <v>5.722906246246108</v>
+        <v>6.312029388628289</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.16648857645261</v>
+        <v>45.47374156471152</v>
       </c>
       <c r="D46" t="n">
-        <v>6.337882125815696</v>
+        <v>5.671365519154865</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.29773759274426</v>
+        <v>44.5149503514765</v>
       </c>
       <c r="D47" t="n">
-        <v>6.203664594326095</v>
+        <v>5.307903225766579</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.44933437580342</v>
+        <v>43.77326100203806</v>
       </c>
       <c r="D48" t="n">
-        <v>6.103054770839828</v>
+        <v>5.989957798410004</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.46212447128209</v>
+        <v>42.29189896359816</v>
       </c>
       <c r="D49" t="n">
-        <v>5.808444541434983</v>
+        <v>6.562823139638403</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.07808664580244</v>
+        <v>42.40037682360659</v>
       </c>
       <c r="D50" t="n">
-        <v>5.465805528731593</v>
+        <v>5.981552128031362</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.28832668301547</v>
+        <v>40.0856239978913</v>
       </c>
       <c r="D51" t="n">
-        <v>6.812170879939025</v>
+        <v>5.897274809243848</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.46346679754026</v>
+        <v>39.94967865797667</v>
       </c>
       <c r="D52" t="n">
-        <v>5.294166087653966</v>
+        <v>5.950690309101711</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.28418852486828</v>
+        <v>39.20106077466821</v>
       </c>
       <c r="D53" t="n">
-        <v>5.769739195870078</v>
+        <v>5.639542828148216</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.91220107414497</v>
+        <v>38.04203482948403</v>
       </c>
       <c r="D54" t="n">
-        <v>5.026507476229408</v>
+        <v>6.520700604969984</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.03866989436213</v>
+        <v>37.29853027717452</v>
       </c>
       <c r="D55" t="n">
-        <v>6.123072150406716</v>
+        <v>6.370850936569478</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.80955923722671</v>
+        <v>35.78837238388215</v>
       </c>
       <c r="D56" t="n">
-        <v>6.487325271803812</v>
+        <v>5.517028853910864</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.56496796635853</v>
+        <v>35.2415331603482</v>
       </c>
       <c r="D57" t="n">
-        <v>5.288515123727855</v>
+        <v>5.589338794847803</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.172649116184</v>
+        <v>34.0467223861729</v>
       </c>
       <c r="D58" t="n">
-        <v>5.39437504424271</v>
+        <v>5.963418530003364</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.02664875149186</v>
+        <v>31.7260355171964</v>
       </c>
       <c r="D59" t="n">
-        <v>6.248882713924752</v>
+        <v>6.775875700269298</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.30134561726038</v>
+        <v>33.41965718214974</v>
       </c>
       <c r="D60" t="n">
-        <v>5.818598699717837</v>
+        <v>5.351545695593185</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.17901686055552</v>
+        <v>31.04268338987734</v>
       </c>
       <c r="D61" t="n">
-        <v>6.517626790576999</v>
+        <v>6.603652478271838</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.37000859391491</v>
+        <v>30.14132985169083</v>
       </c>
       <c r="D62" t="n">
-        <v>5.758131361710063</v>
+        <v>6.411221547911498</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.08061554391424</v>
+        <v>29.23135830791461</v>
       </c>
       <c r="D63" t="n">
-        <v>6.115854254836162</v>
+        <v>5.279162932476909</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.58235831618079</v>
+        <v>27.90467220466668</v>
       </c>
       <c r="D64" t="n">
-        <v>6.013044600372217</v>
+        <v>5.853888797805139</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.01695143089252</v>
+        <v>26.99323307903466</v>
       </c>
       <c r="D65" t="n">
-        <v>6.395339176215494</v>
+        <v>6.085593909729413</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.80207176936342</v>
+        <v>26.43622842719283</v>
       </c>
       <c r="D66" t="n">
-        <v>5.930670583678493</v>
+        <v>6.70194045593332</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.39521502798988</v>
+        <v>25.31455845474233</v>
       </c>
       <c r="D67" t="n">
-        <v>6.730342958470874</v>
+        <v>6.66633402476522</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.68463741278073</v>
+        <v>23.75644016719971</v>
       </c>
       <c r="D68" t="n">
-        <v>5.296926111163721</v>
+        <v>5.880365677134109</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03275669820257</v>
+        <v>23.48262271392636</v>
       </c>
       <c r="D69" t="n">
-        <v>6.351237336454029</v>
+        <v>5.816588359851388</v>
       </c>
     </row>
   </sheetData>
